--- a/DcIssueTotalUnitsData.xlsx
+++ b/DcIssueTotalUnitsData.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Projects\Comic_Sorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D3CF7-C3E9-4368-866D-60349A1BD643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A91EF-9EAD-4E38-BBBF-4649CEB7CFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -490,12 +503,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -525,9 +544,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -598,17 +620,18 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DC Total Units</c:v>
+                  <c:v>DC Total Comics In Top 300</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -623,11 +646,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1080,462 +1103,464 @@
                   <c:v>03/2020</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$ER$2</c:f>
+              <c:f>Sheet1!$B$4:$ER$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="147"/>
                 <c:pt idx="0">
-                  <c:v>2246973</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2223014</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2100880</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2177315</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2236603</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2023496</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2484436</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2278693</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2003787</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2654859</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2121028</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2518028</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1975417</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1643360</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1511850</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2275647</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1819374</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1938857</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2551107</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2586011</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2506899</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2468519</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2256362</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2002724</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2099485</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1925536</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1929918</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1893661</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2234854</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2273509</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2228661</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1819456</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1993309</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2280972</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2181643</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2211690</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1470126</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1691703</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2008941</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1730475</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1506924</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2175191</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2144580</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2350104</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3387321</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4256253</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3029452</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2644040</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2465098</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2367158</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2353877</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2203727</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2842944</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2804482</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2532805</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2795299</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2809165</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2695036</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2578461</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2656208</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2538474</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2446866</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2298784</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2024041</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2356103</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2348782</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2674642</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2232110</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3991083</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2725392</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2366521</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2349322</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2040811</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1980114</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1964054</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2037291</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2369267</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2247134</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2774659</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2232062</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3645348</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2937878</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2369079</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2673793</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1940726</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2103024</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1853431</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3219015</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2154033</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2272141</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2021738</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1926999</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1817332</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1951946</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2314621</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2635467</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1647795</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1929541</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1739799</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1823353</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1801203</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3123168</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3933014</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4626905</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3641318</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3405479</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3058224</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2917860</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2904117</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2628220</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2702537</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2481958</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2579819</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2523374</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2179447</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2367694</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2563852</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2709116</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2924477</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2409408</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2681510</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2304202</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2312202</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2441167</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2269529</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2313548</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2466932</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2134711</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2212099</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2567917</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1957744</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1912753</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2382929</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1783359</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2213196</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1632272</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2183256</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1796741</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2119787</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1797858</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2224799</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2813946</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2166017</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2059089</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1913963</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1839554</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1644295</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-776C-49A9-85AD-0FF5C591D4E2}"/>
+              <c16:uniqueId val="{00000002-776C-49A9-85AD-0FF5C591D4E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1553,12 +1578,974 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DC Total Units</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$ER$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="147"/>
+                      <c:pt idx="0">
+                        <c:v>01/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>02/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>03/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>04/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>05/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>06/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>07/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>08/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>09/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12/2008</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>01/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>02/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>03/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>04/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>05/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>06/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>07/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>08/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>09/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>10/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>11/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>12/2009</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>01/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>02/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>03/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>04/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>05/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>06/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>07/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>08/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>09/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>10/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>11/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>12/2010</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>01/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>02/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>03/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>04/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>05/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>06/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>07/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>08/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>09/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>10/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>11/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>12/2011</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>01/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>02/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>03/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>04/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>05/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>06/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>07/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>08/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>09/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>10/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>11/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>12/2012</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>01/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>02/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>03/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>04/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>05/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>06/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>07/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>08/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>09/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>10/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>11/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>12/2013</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>01/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>02/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>03/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>04/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>05/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>06/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>07/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>08/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>09/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>10/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>11/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>12/2014</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>01/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>02/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>03/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>04/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>05/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>06/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>07/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>08/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>09/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>10/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>11/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>12/2015</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>01/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>02/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>03/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>04/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>05/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>06/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>07/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>08/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>09/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>10/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>11/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>12/2016</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>01/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>02/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>03/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>04/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>05/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>06/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>07/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>08/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>09/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>10/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>11/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>12/2017</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>01/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>02/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>03/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>04/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>05/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>06/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>07/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>08/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>09/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>10/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>11/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>12/2018</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>01/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>02/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>03/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>04/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>05/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>06/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>07/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>08/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>09/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>10/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>11/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>12/2019</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>01/2020</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>02/2020</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>03/2020</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$ER$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="147"/>
+                      <c:pt idx="0">
+                        <c:v>2246973</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2223014</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2100880</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2177315</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2236603</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2023496</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2484436</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2278693</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2003787</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2654859</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2121028</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2518028</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1975417</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1643360</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1511850</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2275647</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1819374</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1938857</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2551107</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2586011</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2506899</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2468519</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2256362</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2002724</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2099485</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1925536</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1929918</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1893661</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2234854</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2273509</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2228661</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1819456</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1993309</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2280972</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2181643</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2211690</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1470126</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1691703</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2008941</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1730475</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1506924</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2175191</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2144580</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2350104</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3387321</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4256253</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3029452</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2644040</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2465098</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2367158</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>2353877</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>2203727</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>2842944</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>2804482</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>2532805</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>2795299</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>2809165</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>2695036</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>2578461</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>2656208</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>2538474</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>2446866</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>2298784</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2024041</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2356103</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2348782</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2674642</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2232110</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>3991083</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2725392</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>2366521</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>2349322</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>2040811</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>1980114</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1964054</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2037291</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2369267</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2247134</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>2774659</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>2232062</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>3645348</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>2937878</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>2369079</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>2673793</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>1940726</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>2103024</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>1853431</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>3219015</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>2154033</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>2272141</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>2021738</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>1926999</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>1817332</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>1951946</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>2314621</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>2635467</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>1647795</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>1929541</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>1739799</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>1823353</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1801203</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>3123168</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>3933014</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>4626905</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>3641318</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>3405479</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>3058224</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>2917860</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>2904117</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>2628220</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>2702537</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>2481958</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>2579819</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>2523374</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>2179447</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>2367694</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>2563852</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>2709116</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>2924477</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>2409408</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>2681510</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>2304202</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>2312202</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>2441167</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>2269529</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>2313548</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>2466932</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>2134711</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>2212099</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>2567917</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>1957744</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>1912753</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>2382929</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>1783359</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>2213196</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>1632272</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>2183256</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>1796741</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>2119787</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>1797858</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>2224799</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>2813946</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>2166017</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>2059089</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>1913963</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>1839554</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>1644295</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-776C-49A9-85AD-0FF5C591D4E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3</c15:sqref>
                         </c15:formulaRef>
@@ -1596,8 +2583,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$ER$1</c15:sqref>
                         </c15:formulaRef>
@@ -2051,8 +3038,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$ER$3</c15:sqref>
                         </c15:formulaRef>
@@ -2506,971 +3493,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-776C-49A9-85AD-0FF5C591D4E2}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>DC Total Comics In Top 300</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$ER$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="147"/>
-                      <c:pt idx="0">
-                        <c:v>01/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>02/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>03/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>04/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>05/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>06/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>07/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>08/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>09/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12/2008</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>01/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>02/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>03/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>04/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>05/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>06/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>07/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>08/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>09/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>10/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>11/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>12/2009</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>01/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>02/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>03/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>04/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>05/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>06/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>07/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>08/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>09/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>10/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>11/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>12/2010</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>01/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>02/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>03/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>04/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>05/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>06/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>07/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>08/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>09/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>10/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>11/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>12/2011</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>01/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>02/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>03/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>04/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>05/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>06/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>07/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>08/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>09/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>10/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>11/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>12/2012</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>01/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>02/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>03/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>04/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>05/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>06/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>07/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>08/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>09/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>10/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>11/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>12/2013</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>01/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>02/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>03/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>04/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>05/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>06/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>07/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>08/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>09/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>10/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>11/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>12/2014</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>01/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>02/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>03/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>04/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>05/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>06/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>07/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>08/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>09/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>10/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>11/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>12/2015</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>01/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>02/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>03/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>04/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>05/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>06/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>07/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>08/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>09/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>10/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>11/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>12/2016</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>01/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>02/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>03/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>04/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>05/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>06/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>07/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>08/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>09/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>10/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>11/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>12/2017</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>01/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>02/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>03/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>04/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>05/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>06/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>07/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>08/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>09/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>10/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>11/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>12/2018</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>01/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>02/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>03/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>04/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>05/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>06/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>07/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>08/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>09/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>10/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>11/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>12/2019</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>01/2020</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>02/2020</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>03/2020</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$ER$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="147"/>
-                      <c:pt idx="0">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>87</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>83</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>102</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>96</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>87</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>102</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>87</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>94</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>129</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>83</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>83</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>66</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>87</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>103</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>87</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>66</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>59</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>53</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>72</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-776C-49A9-85AD-0FF5C591D4E2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5656,7 +5681,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4</c15:sqref>
@@ -5695,7 +5720,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$ER$1</c15:sqref>
@@ -6150,7 +6175,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$ER$4</c15:sqref>
@@ -6605,7 +6630,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7AC6-46FB-A917-E5A75D852318}"/>
                   </c:ext>
@@ -8793,7 +8818,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3</c15:sqref>
@@ -8832,7 +8857,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$ER$1</c15:sqref>
@@ -9287,7 +9312,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$ER$3</c15:sqref>
@@ -9742,7 +9767,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-9C33-449D-A4FF-C3CC2369423C}"/>
                   </c:ext>
@@ -12033,7 +12058,7 @@
   <dimension ref="A1:ER150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12174,7 +12199,7 @@
       <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AU1" s="1" t="s">
@@ -12342,7 +12367,7 @@
       <c r="CW1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CX1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="CY1" s="1" t="s">

--- a/DcIssueTotalUnitsData.xlsx
+++ b/DcIssueTotalUnitsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Projects\Comic_Sorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26CC29-C8F6-4357-89EB-ED6BBF75DBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D462C931-B815-4E47-AA46-E6D6FD230E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11895" yWindow="1350" windowWidth="7830" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="163">
   <si>
     <t>01/2008</t>
   </si>
@@ -615,7 +615,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2007,7 +2007,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Rebirth!$B$11:$AX$11</c:f>
+              <c:f>Rebirth!$C$11:$AY$11</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -2162,7 +2162,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Rebirth!$B$12:$AX$12</c:f>
+              <c:f>Rebirth!$C$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -2387,7 +2387,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Rebirth!$B$11:$AX$11</c15:sqref>
+                          <c15:sqref>Rebirth!$C$11:$AY$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2548,7 +2548,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Rebirth!$B$13:$AX$13</c15:sqref>
+                          <c15:sqref>Rebirth!$C$13:$AY$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2719,7 +2719,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Rebirth!$A$14</c15:sqref>
@@ -2760,10 +2760,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Rebirth!$B$11:$AX$11</c15:sqref>
+                          <c15:sqref>Rebirth!$C$11:$AY$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2921,10 +2921,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Rebirth!$B$14:$AX$14</c15:sqref>
+                          <c15:sqref>Rebirth!$C$14:$AY$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3082,7 +3082,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8F5B-437B-A634-04F7FEADDDCA}"/>
                   </c:ext>
@@ -11059,7 +11059,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'New52'!$B$1:$Z$1</c:f>
+              <c:f>'New52'!$C$1:$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
@@ -11142,7 +11142,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'New52'!$B$2:$Z$2</c:f>
+              <c:f>'New52'!$C$2:$AA$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -11295,7 +11295,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'New52'!$B$1:$Z$1</c15:sqref>
+                          <c15:sqref>'New52'!$C$1:$AA$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11384,7 +11384,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'New52'!$B$3:$Z$3</c15:sqref>
+                          <c15:sqref>'New52'!$C$3:$AA$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11483,7 +11483,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New52'!$A$4</c15:sqref>
@@ -11524,10 +11524,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'New52'!$B$1:$Z$1</c15:sqref>
+                          <c15:sqref>'New52'!$C$1:$AA$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11613,10 +11613,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'New52'!$B$4:$Z$4</c15:sqref>
+                          <c15:sqref>'New52'!$C$4:$AA$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11702,7 +11702,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-5352-468F-87E4-D3FF8548673C}"/>
                   </c:ext>
@@ -13528,7 +13528,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'New52'!$B$6:$AX$6</c:f>
+              <c:f>'New52'!$C$6:$AY$6</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -13683,7 +13683,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'New52'!$B$7:$AX$7</c:f>
+              <c:f>'New52'!$C$7:$AY$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -13884,7 +13884,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'New52'!$B$6:$AX$6</c:f>
+              <c:f>'New52'!$C$6:$AY$6</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
@@ -14039,7 +14039,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'New52'!$B$8:$AX$8</c:f>
+              <c:f>'New52'!$C$8:$AY$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -14264,7 +14264,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'New52'!$B$6:$AX$6</c15:sqref>
+                          <c15:sqref>'New52'!$C$6:$AY$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -14425,7 +14425,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'New52'!$B$9:$AX$9</c15:sqref>
+                          <c15:sqref>'New52'!$C$9:$AY$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -15561,7 +15561,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Rebirth!$A$4</c15:sqref>
@@ -15602,7 +15602,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Rebirth!$B$1:$AV$1</c15:sqref>
@@ -15757,7 +15757,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Rebirth!$B$4:$AV$4</c15:sqref>
@@ -15912,7 +15912,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-AD1C-48A5-9145-F96C8D82D4C5}"/>
                   </c:ext>
@@ -16235,7 +16235,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Rebirth!$B$6:$Z$6</c:f>
+              <c:f>Rebirth!$C$6:$AA$6</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
@@ -16318,7 +16318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Rebirth!$B$7:$Z$7</c:f>
+              <c:f>Rebirth!$C$7:$AA$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -16471,7 +16471,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Rebirth!$B$6:$Z$6</c15:sqref>
+                          <c15:sqref>Rebirth!$C$6:$AA$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -16560,7 +16560,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Rebirth!$B$8:$Z$8</c15:sqref>
+                          <c15:sqref>Rebirth!$C$8:$AA$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -16659,7 +16659,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Rebirth!$A$9</c15:sqref>
@@ -16700,10 +16700,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Rebirth!$B$6:$Z$6</c15:sqref>
+                          <c15:sqref>Rebirth!$C$6:$AA$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -16789,10 +16789,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Rebirth!$B$9:$Z$9</c15:sqref>
+                          <c15:sqref>Rebirth!$C$9:$AA$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -16878,7 +16878,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FADD-4CF1-A346-1DC5EC0CC22F}"/>
                   </c:ext>
@@ -22748,15 +22748,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219073</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>152398</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>395288</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23228,8 +23228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ER150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BY4" sqref="BY1:BY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26027,8 +26027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4166A42-5602-45B2-BC9E-77EE8E62F959}">
   <dimension ref="A1:BE14"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26041,78 +26041,81 @@
         <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -26121,78 +26124,81 @@
         <v>151</v>
       </c>
       <c r="B2">
+        <v>1819456</v>
+      </c>
+      <c r="C2">
         <v>1993309</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2280972</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2181643</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2211690</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1470126</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1691703</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2008941</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1730475</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1506924</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2175191</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2144580</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2350104</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>3387321</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4256253</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3029452</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2644040</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2465098</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2367158</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2353877</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2203727</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2842944</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2804482</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2532805</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2795299</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2809165</v>
       </c>
     </row>
@@ -26201,78 +26207,81 @@
         <v>150</v>
       </c>
       <c r="B3">
+        <v>6151067.4400000013</v>
+      </c>
+      <c r="C3">
         <v>6686610.9100000029</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7980950.2800000021</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7563284.5699999994</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7852534.0999999959</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4476835.7400000021</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5310325.9700000007</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6192430.5899999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5814418.2500000019</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4783167.7600000026</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>6660452.0899999999</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>6742664.5599999996</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>7906367.9600000028</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>10435511.789999999</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>13272055.02</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>9458538.480000006</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>8503162.6000000034</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>7713736.0200000033</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>7412115.4200000027</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>7394742.2300000004</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>7123135.7300000004</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>9567032.5599999987</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>9351258.1800000034</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>8366810.9499999993</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>9669526.0100000035</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>9271346.3499999978</v>
       </c>
     </row>
@@ -26281,78 +26290,81 @@
         <v>152</v>
       </c>
       <c r="B4">
+        <v>81</v>
+      </c>
+      <c r="C4">
         <v>84</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>102</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>91</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>93</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>76</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>78</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>85</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>73</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>68</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>87</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>90</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>94</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>68</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>129</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>86</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>85</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>84</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>85</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>93</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>81</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>78</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>85</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>81</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>85</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>82</v>
       </c>
     </row>
@@ -26361,150 +26373,153 @@
         <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AT6" s="1" t="s">
+      <c r="AU6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AV6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AV6" s="1" t="s">
+      <c r="AW6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AX6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AY6" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -26513,150 +26528,153 @@
         <v>151</v>
       </c>
       <c r="B7">
+        <v>2586011</v>
+      </c>
+      <c r="C7">
         <v>2506899</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2468519</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2256362</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2002724</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2099485</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1925536</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1929918</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1893661</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2234854</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2273509</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2228661</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1819456</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1993309</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2280972</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2181643</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2211690</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1470126</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1691703</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2008941</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1730475</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1506924</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2175191</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2144580</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2350104</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AA7" s="3">
         <v>3387321</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>4256253</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>3029452</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2644040</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2465098</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2367158</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>2353877</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>2203727</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2842944</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2804482</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2532805</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2795299</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>2809165</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2695036</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>2578461</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>2656208</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>2538474</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>2446866</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>2298784</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>2024041</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>2356103</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>2348782</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>2674642</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>2232110</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>3991083</v>
       </c>
     </row>
@@ -26665,150 +26683,153 @@
         <v>150</v>
       </c>
       <c r="B8">
+        <v>8578672.0399999954</v>
+      </c>
+      <c r="C8">
         <v>8344961.3199999984</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>8263246.8300000001</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7820290.2900000047</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6854050.2300000004</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6824002.6399999997</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6397985.2300000004</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>6682922.1799999997</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>6464312.6600000001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>7282517.8100000033</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>7862281.1299999971</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>7393938.389999995</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>6151067.4400000013</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>6686610.9100000029</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>7980950.2800000021</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>7563284.5699999994</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>7852534.0999999959</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>4476835.7400000021</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>5310325.9700000007</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>6192430.5899999999</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>5814418.2500000019</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>4783167.7600000026</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>6660452.0899999999</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>6742664.5599999996</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>7906367.9600000028</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10435511.789999999</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>13272055.02</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>9458538.480000006</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>8503162.6000000034</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>7713736.0200000033</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>7412115.4200000027</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>7394742.2300000004</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>7123135.7300000004</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>9567032.5599999987</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>9351258.1800000034</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>8366810.9499999993</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>9669526.0100000035</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>9271346.3499999978</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>9224665.6400000006</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>8566198.3900000006</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>8823569.9200000037</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>8645586.2599999979</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>8412722.3400000017</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>7739394.1600000029</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>6949339.589999998</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>8407263.9699999988</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>8436658.1800000016</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>9588445.5800000019</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>7853057.8999999994</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>14654508.170000009</v>
       </c>
     </row>
@@ -26817,150 +26838,153 @@
         <v>152</v>
       </c>
       <c r="B9">
+        <v>102</v>
+      </c>
+      <c r="C9">
         <v>97</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>96</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>82</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>85</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>88</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>79</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>85</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>87</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>90</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>95</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>93</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>81</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>84</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>102</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>91</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>93</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>76</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>78</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>85</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>73</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>68</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>87</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>90</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>94</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>68</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>129</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>86</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>85</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>84</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>85</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>93</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>81</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>78</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>85</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>81</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>85</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>82</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>85</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>81</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>82</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>84</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>73</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>78</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>74</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>79</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>70</v>
-      </c>
-      <c r="AV9">
-        <v>80</v>
       </c>
       <c r="AW9">
         <v>80</v>
       </c>
       <c r="AX9">
+        <v>80</v>
+      </c>
+      <c r="AY9">
         <v>128</v>
       </c>
     </row>
@@ -27665,10 +27689,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D14FA34-5FC0-42DC-BEDF-D5F48817911A}">
-  <dimension ref="A1:AX14"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27676,7 +27700,7 @@
     <col min="1" max="1" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>155</v>
       </c>
@@ -27822,7 +27846,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>156</v>
       </c>
@@ -27968,7 +27992,7 @@
         <v>1644295</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>157</v>
       </c>
@@ -28114,7 +28138,7 @@
         <v>7336670.4000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>158</v>
       </c>
@@ -28260,931 +28284,955 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B7">
+        <v>3219015</v>
+      </c>
+      <c r="C7">
         <v>2154033</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2272141</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2021738</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1926999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1817332</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1951946</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2314621</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2635467</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1647795</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1929541</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1739799</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1823353</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>1801203</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3123168</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3933014</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4626905</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3641318</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3405479</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3058224</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2917860</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2904117</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2628220</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2702537</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2481958</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2579819</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B8">
+        <v>13236089.850000011</v>
+      </c>
+      <c r="C8">
         <v>8754896.6699999981</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>8445894.4500000011</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7449603.6199999992</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6917288.0100000016</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7058137.6800000006</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6949766.5699999984</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9552898.7899999972</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>10565997.329999991</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>6068300.3000000035</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>7409066.5099999998</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>7183843.9799999986</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>7347775.3400000008</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6897231.9700000007</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>11033375.32</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>12269436.860000011</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>15002375.949999999</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>11585436.819999989</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>11492066.210000001</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>10322872.760000009</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>10106384.4</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>9714362.8299999982</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>8465328.8000000007</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>9278275.6300000045</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>8621488.4199999999</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>8954290.8100000042</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B9">
+        <v>77</v>
+      </c>
+      <c r="C9">
         <v>68</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>64</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>72</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>68</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>69</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>75</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>76</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>92</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>78</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>79</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>78</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>77</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>68</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>66</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>77</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>71</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>76</v>
-      </c>
-      <c r="S9">
-        <v>82</v>
       </c>
       <c r="T9">
         <v>82</v>
       </c>
       <c r="U9">
+        <v>82</v>
+      </c>
+      <c r="V9">
         <v>81</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>85</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>82</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>87</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>77</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AG11" s="1" t="s">
+      <c r="AH11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AH11" s="1" t="s">
+      <c r="AI11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AI11" s="1" t="s">
+      <c r="AJ11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AJ11" s="1" t="s">
+      <c r="AK11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AK11" s="1" t="s">
+      <c r="AL11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AM11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AM11" s="1" t="s">
+      <c r="AN11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AO11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AP11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AP11" s="1" t="s">
+      <c r="AQ11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AQ11" s="1" t="s">
+      <c r="AR11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AR11" s="1" t="s">
+      <c r="AS11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AS11" s="1" t="s">
+      <c r="AT11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AT11" s="1" t="s">
+      <c r="AU11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AU11" s="1" t="s">
+      <c r="AV11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AV11" s="1" t="s">
+      <c r="AW11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AW11" s="1" t="s">
+      <c r="AX11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AX11" s="1" t="s">
+      <c r="AY11" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B12">
+        <v>2037291</v>
+      </c>
+      <c r="C12">
         <v>2369267</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2247134</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2774659</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2232062</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3645348</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2937878</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2369079</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2673793</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1940726</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2103024</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1853431</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3219015</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2154033</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2272141</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2021738</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1926999</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1817332</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1951946</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2314621</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2635467</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1647795</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1929541</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1739799</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1823353</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1801203</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>3123168</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>3933014</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>4626905</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>3641318</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>3405479</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>3058224</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2917860</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2904117</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2628220</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>2702537</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2481958</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>2579819</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>2523374</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2179447</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>2367694</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>2563852</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>2709116</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>2924477</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>2409408</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>2681510</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>2304202</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>2312202</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>2441167</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>2269529</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B13">
+        <v>7061100.0900000017</v>
+      </c>
+      <c r="C13">
         <v>8268963.3299999982</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>7556769.6599999992</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>9841149.4100000057</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>7601486.5600000024</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>13802195.919999991</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10318490.590000009</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>8051187.0000000019</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>9310192.3399999961</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>6605661.740000003</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>7202448.7599999988</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>6178118.46</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>13236089.850000011</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>8754896.6699999981</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>8445894.4500000011</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>7449603.6199999992</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>6917288.0100000016</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>7058137.6800000006</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>6949766.5699999984</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>9552898.7899999972</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>10565997.329999991</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>6068300.3000000035</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>7409066.5099999998</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>7183843.9799999986</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>7347775.3400000008</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AA13" s="3">
         <v>6897231.9700000007</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>11033375.32</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>12269436.860000011</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>15002375.949999999</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>11585436.819999989</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>11492066.210000001</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>10322872.760000009</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>10106384.4</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>9714362.8299999982</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>8465328.8000000007</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>9278275.6300000045</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>8621488.4199999999</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>8954290.8100000042</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>9717190.2600000016</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>7568596.6700000027</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>9847770.1400000006</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>9082184.480000006</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>9630288.8400000017</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>11356424.23</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>8872153.9199999999</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>9825930.900000006</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>8388265.9800000014</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>8395576.9800000023</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>10384796.33</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>8826739.709999999</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B14">
+        <v>69</v>
+      </c>
+      <c r="C14">
         <v>77</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>70</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>83</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>75</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>115</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>90</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>82</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>90</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>80</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>83</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>75</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>77</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>68</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>64</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>72</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>68</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>69</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>75</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>76</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>92</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>78</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>79</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>78</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>77</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>68</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>66</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>77</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>71</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>76</v>
-      </c>
-      <c r="AE14">
-        <v>82</v>
       </c>
       <c r="AF14">
         <v>82</v>
       </c>
       <c r="AG14">
+        <v>82</v>
+      </c>
+      <c r="AH14">
         <v>81</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>85</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>82</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>87</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>77</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>81</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>82</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>74</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>75</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>76</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>81</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>92</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>84</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>103</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>90</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>85</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>81</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>76</v>
       </c>
     </row>
